--- a/biology/Botanique/Manzanilla_(DO)/Manzanilla_(DO).xlsx
+++ b/biology/Botanique/Manzanilla_(DO)/Manzanilla_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le manzanilla de Sanlúcar de Barrameda est un vin espagnol du vignoble d'Andalousie. Il est sous le contrôle d'un équivalent espagnol de l'AOC, la Denominación de Origen Manzanilla-Sanlúcar de Barrameda.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,42 +548,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aire de dénomination
-Géologie et orographie
-Climatologie</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Manzanilla_(DO)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Manzanilla_(DO)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vieux cep taillé.
@@ -580,31 +564,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Manzanilla_(DO)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Manzanilla_(DO)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un vin de voile très pâle, piquant, léger au palais, sec et peu acide. Sa teneur en alcool, variant auparavant entre 15,5 et 17 %, a été fixée à 15 degrés. C'est de ce fait le plus léger des vins de Jerez. Il est surtout bu comme vin d'apéritif.
 Il y en a principalement deux variétés : le manzanilla fina (fin) et le manzanilla pasada (passé). C'est, avec le vino fino, le vin typique des ferias andalouses. Cependant, ces dernières années le rebujito s'est imposé comme boisson typique des ferias, mélange de manzanilla et de limonade gazeuse.
